--- a/data/ema.xlsx
+++ b/data/ema.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E242"/>
+  <dimension ref="A1:F242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,6 +380,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>ema_string</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>prikket</t>
         </is>
       </c>
@@ -400,6 +405,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -420,6 +430,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -440,6 +455,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -460,6 +480,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -480,6 +505,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -501,6 +531,11 @@
       <c r="D7">
         <v>7</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -518,6 +553,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -538,6 +578,11 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -559,6 +604,11 @@
       <c r="D10">
         <v>7</v>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -576,6 +626,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -596,6 +651,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -616,6 +676,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -636,6 +701,11 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -656,6 +726,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -676,6 +751,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -696,6 +776,11 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -717,6 +802,11 @@
       <c r="D18">
         <v>8</v>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -734,6 +824,11 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -755,6 +850,11 @@
       <c r="D20">
         <v>5</v>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -772,6 +872,11 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -792,6 +897,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -812,6 +922,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -832,6 +947,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -853,6 +973,11 @@
       <c r="D25">
         <v>8</v>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -870,6 +995,11 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -890,6 +1020,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -910,6 +1045,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -930,6 +1070,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -950,6 +1095,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -970,6 +1120,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -990,6 +1145,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1011,6 +1171,11 @@
       <c r="D33">
         <v>5</v>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -1028,6 +1193,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1048,6 +1218,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1068,6 +1243,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1088,6 +1268,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1108,6 +1293,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1128,6 +1318,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1148,6 +1343,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1168,6 +1368,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1188,6 +1393,11 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1209,6 +1419,11 @@
       <c r="D43">
         <v>14</v>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -1226,6 +1441,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1246,6 +1466,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1266,6 +1491,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1286,6 +1516,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1307,6 +1542,11 @@
       <c r="D48">
         <v>6</v>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -1324,6 +1564,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1344,6 +1589,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1364,6 +1614,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1384,6 +1639,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1404,6 +1664,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1424,6 +1689,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1444,6 +1714,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1464,6 +1739,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1484,6 +1764,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1505,6 +1790,11 @@
       <c r="D58">
         <v>6</v>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -1522,6 +1812,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1543,6 +1838,11 @@
       <c r="D60">
         <v>5</v>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -1560,6 +1860,11 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1580,6 +1885,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1600,6 +1910,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1620,6 +1935,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1641,6 +1961,11 @@
       <c r="D65">
         <v>48</v>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -1658,6 +1983,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1678,6 +2008,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1698,6 +2033,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1718,6 +2058,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1738,6 +2083,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1758,6 +2108,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1778,6 +2133,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1798,6 +2158,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1818,6 +2183,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1839,6 +2209,11 @@
       <c r="D75">
         <v>8</v>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -1856,6 +2231,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1876,6 +2256,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1896,6 +2281,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1916,6 +2306,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1936,6 +2331,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1957,6 +2357,11 @@
       <c r="D81">
         <v>6</v>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -1974,6 +2379,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -1994,6 +2404,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2015,6 +2430,11 @@
       <c r="D84">
         <v>5</v>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -2032,6 +2452,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2052,6 +2477,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2073,6 +2503,11 @@
       <c r="D87">
         <v>10</v>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -2090,6 +2525,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2111,6 +2551,11 @@
       <c r="D89">
         <v>9</v>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -2129,6 +2574,11 @@
       <c r="D90">
         <v>19</v>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -2146,6 +2596,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2166,6 +2621,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2186,6 +2646,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2206,6 +2671,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2226,6 +2696,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2246,6 +2721,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2266,6 +2746,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2286,6 +2771,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2306,6 +2796,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2326,6 +2821,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2346,6 +2846,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2366,6 +2871,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2386,6 +2896,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2406,6 +2921,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2427,6 +2947,11 @@
       <c r="D105">
         <v>5</v>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -2444,6 +2969,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2464,6 +2994,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2484,6 +3019,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2504,6 +3044,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2525,6 +3070,11 @@
       <c r="D110">
         <v>14</v>
       </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -2542,6 +3092,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2563,6 +3118,11 @@
       <c r="D112">
         <v>17</v>
       </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -2581,6 +3141,11 @@
       <c r="D113">
         <v>7</v>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -2599,6 +3164,11 @@
       <c r="D114">
         <v>5</v>
       </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -2616,6 +3186,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2636,6 +3211,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2657,6 +3237,11 @@
       <c r="D117">
         <v>17</v>
       </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -2675,6 +3260,11 @@
       <c r="D118">
         <v>5</v>
       </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -2692,6 +3282,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2712,6 +3307,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2732,6 +3332,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2753,6 +3358,11 @@
       <c r="D122">
         <v>7</v>
       </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -2770,6 +3380,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2790,6 +3405,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2810,6 +3430,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2831,6 +3456,11 @@
       <c r="D126">
         <v>6</v>
       </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -2848,6 +3478,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2868,6 +3503,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2889,6 +3529,11 @@
       <c r="D129">
         <v>12</v>
       </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -2906,6 +3551,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2927,6 +3577,11 @@
       <c r="D131">
         <v>5</v>
       </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132">
@@ -2944,6 +3599,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2964,6 +3624,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -2984,6 +3649,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3005,6 +3675,11 @@
       <c r="D135">
         <v>7</v>
       </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136">
@@ -3022,6 +3697,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3042,6 +3722,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3062,6 +3747,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3082,6 +3772,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3102,6 +3797,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3122,6 +3822,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3142,6 +3847,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3162,6 +3872,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3182,6 +3897,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3202,6 +3922,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3222,6 +3947,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3242,6 +3972,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3262,6 +3997,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3282,6 +4022,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3302,6 +4047,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3322,6 +4072,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3342,6 +4097,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3362,6 +4122,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3382,6 +4147,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3403,6 +4173,11 @@
       <c r="D155">
         <v>15</v>
       </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156">
@@ -3420,6 +4195,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3440,6 +4220,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3460,6 +4245,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3481,6 +4271,11 @@
       <c r="D159">
         <v>5</v>
       </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160">
@@ -3498,6 +4293,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3519,6 +4319,11 @@
       <c r="D161">
         <v>5</v>
       </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162">
@@ -3537,6 +4342,11 @@
       <c r="D162">
         <v>6</v>
       </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163">
@@ -3554,6 +4364,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3575,6 +4390,11 @@
       <c r="D164">
         <v>6</v>
       </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165">
@@ -3593,6 +4413,11 @@
       <c r="D165">
         <v>5</v>
       </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166">
@@ -3610,6 +4435,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3630,6 +4460,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3650,6 +4485,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3670,6 +4510,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3690,6 +4535,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3710,6 +4560,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3730,6 +4585,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3750,6 +4610,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3770,6 +4635,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3791,6 +4661,11 @@
       <c r="D175">
         <v>6</v>
       </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176">
@@ -3808,6 +4683,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3829,6 +4709,11 @@
       <c r="D177">
         <v>46</v>
       </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178">
@@ -3847,6 +4732,11 @@
       <c r="D178">
         <v>10</v>
       </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179">
@@ -3864,6 +4754,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3884,6 +4779,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3904,6 +4804,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3924,6 +4829,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3944,6 +4854,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3964,6 +4879,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -3984,6 +4904,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4004,6 +4929,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4024,6 +4954,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4045,6 +4980,11 @@
       <c r="D188">
         <v>11</v>
       </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189">
@@ -4062,6 +5002,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4082,6 +5027,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4102,6 +5052,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4122,6 +5077,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4142,6 +5102,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4162,6 +5127,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4182,6 +5152,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4203,6 +5178,11 @@
       <c r="D196">
         <v>15</v>
       </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197">
@@ -4220,6 +5200,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4240,6 +5225,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4260,6 +5250,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4280,6 +5275,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4300,6 +5300,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4320,6 +5325,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4340,6 +5350,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4361,6 +5376,11 @@
       <c r="D204">
         <v>8</v>
       </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205">
@@ -4379,6 +5399,11 @@
       <c r="D205">
         <v>21</v>
       </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206">
@@ -4396,6 +5421,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4416,6 +5446,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4436,6 +5471,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4456,6 +5496,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4476,6 +5521,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4496,6 +5546,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4516,6 +5571,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4536,6 +5596,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4556,6 +5621,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4576,6 +5646,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4597,6 +5672,11 @@
       <c r="D216">
         <v>5</v>
       </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217">
@@ -4614,6 +5694,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4634,6 +5719,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4654,6 +5744,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4674,6 +5769,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4693,6 +5793,11 @@
         </is>
       </c>
       <c r="E221" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
         <is>
           <t>Prikket (&lt;5)</t>
         </is>
@@ -4714,6 +5819,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4734,6 +5844,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4754,6 +5869,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4774,6 +5894,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4794,6 +5919,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4814,6 +5944,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4834,6 +5969,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4854,6 +5994,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4874,6 +6019,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4894,6 +6044,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4914,6 +6069,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4934,6 +6094,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4954,6 +6119,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4974,6 +6144,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -4994,6 +6169,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -5014,6 +6194,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -5034,6 +6219,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -5054,6 +6244,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -5074,6 +6269,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -5094,6 +6294,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
           <t>Prikket (&lt;5)</t>
         </is>
       </c>
@@ -5113,6 +6318,11 @@
         </is>
       </c>
       <c r="E242" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
         <is>
           <t>Prikket (&lt;5)</t>
         </is>

--- a/data/ema.xlsx
+++ b/data/ema.xlsx
@@ -34272,4 +34272,236 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D6442C570680934CB22BA5BC5A092BF3" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="d397461c7fbf4fb75751d6c10f41a95f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="07626311-5b23-4afe-aa20-cc40db419bd4" xmlns:ns3="d74b2904-cc6e-4260-b9ea-005e83d891d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab8cf7be5c815422baaa066a5d49f2c7" ns2:_="" ns3:_="">
+    <xsd:import namespace="07626311-5b23-4afe-aa20-cc40db419bd4"/>
+    <xsd:import namespace="d74b2904-cc6e-4260-b9ea-005e83d891d2"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="07626311-5b23-4afe-aa20-cc40db419bd4" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildemerkelapper" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="ff15d7e9-da90-449b-8052-bacb1922583c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d74b2904-cc6e-4260-b9ea-005e83d891d2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Delt med" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Delingsdetaljer" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c4afb154-a261-4ab6-b9a8-d5b394b89eb7}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d74b2904-cc6e-4260-b9ea-005e83d891d2">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innholdstype"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tittel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60E08101-818C-4184-9F99-A0DB02EB6FCB}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5771D10-2CA0-4F14-BD99-9FBFDB668735}"/>
 </file>
--- a/data/ema.xlsx
+++ b/data/ema.xlsx
@@ -34275,8 +34275,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D6442C570680934CB22BA5BC5A092BF3" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="d397461c7fbf4fb75751d6c10f41a95f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="07626311-5b23-4afe-aa20-cc40db419bd4" xmlns:ns3="d74b2904-cc6e-4260-b9ea-005e83d891d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab8cf7be5c815422baaa066a5d49f2c7" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D6442C570680934CB22BA5BC5A092BF3" ma:contentTypeVersion="14" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="352537810bc3c6c10f651080fe7bf026">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="07626311-5b23-4afe-aa20-cc40db419bd4" xmlns:ns3="d74b2904-cc6e-4260-b9ea-005e83d891d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="00128a85c890d0b2da9297bff2aa970a" ns2:_="" ns3:_="">
     <xsd:import namespace="07626311-5b23-4afe-aa20-cc40db419bd4"/>
     <xsd:import namespace="d74b2904-cc6e-4260-b9ea-005e83d891d2"/>
     <xsd:element name="properties">
@@ -34296,6 +34296,8 @@
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -34344,6 +34346,18 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="20" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -34499,9 +34513,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60E08101-818C-4184-9F99-A0DB02EB6FCB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBD34D3E-3BE5-475B-B4BE-118F41C86765}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5771D10-2CA0-4F14-BD99-9FBFDB668735}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0263A028-53BD-4CEA-8C00-8563DBFF6CF3}"/>
 </file>
--- a/data/ema.xlsx
+++ b/data/ema.xlsx
@@ -34513,9 +34513,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBD34D3E-3BE5-475B-B4BE-118F41C86765}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90BB3C8A-43EA-4E37-84B4-97C8FB92318A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0263A028-53BD-4CEA-8C00-8563DBFF6CF3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D5326E-C424-4447-8EB8-3BE46A2AD48D}"/>
 </file>
--- a/data/ema.xlsx
+++ b/data/ema.xlsx
@@ -34275,8 +34275,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D6442C570680934CB22BA5BC5A092BF3" ma:contentTypeVersion="14" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="352537810bc3c6c10f651080fe7bf026">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="07626311-5b23-4afe-aa20-cc40db419bd4" xmlns:ns3="d74b2904-cc6e-4260-b9ea-005e83d891d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="00128a85c890d0b2da9297bff2aa970a" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D6442C570680934CB22BA5BC5A092BF3" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d8715acdad66b2e285dd96b64bd0916a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="07626311-5b23-4afe-aa20-cc40db419bd4" xmlns:ns3="d74b2904-cc6e-4260-b9ea-005e83d891d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e6541d147a18f301eed2e0ff6941535" ns2:_="" ns3:_="">
     <xsd:import namespace="07626311-5b23-4afe-aa20-cc40db419bd4"/>
     <xsd:import namespace="d74b2904-cc6e-4260-b9ea-005e83d891d2"/>
     <xsd:element name="properties">
@@ -34298,6 +34298,7 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -34328,7 +34329,7 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildemerkelapper" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="ff15d7e9-da90-449b-8052-bacb1922583c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="ff15d7e9-da90-449b-8052-bacb1922583c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -34362,11 +34363,16 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="22" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d74b2904-cc6e-4260-b9ea-005e83d891d2" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Delt med" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -34385,7 +34391,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Delingsdetaljer" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -34413,8 +34419,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innholdstype"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tittel"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -34512,10 +34518,25 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="07626311-5b23-4afe-aa20-cc40db419bd4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d74b2904-cc6e-4260-b9ea-005e83d891d2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90BB3C8A-43EA-4E37-84B4-97C8FB92318A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F79991E1-8912-416F-9ADA-42F9DEF024BD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D5326E-C424-4447-8EB8-3BE46A2AD48D}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC9DFC18-9278-4F7B-A4E0-41104170B53F}"/>
 </file>